--- a/LibroDomioInfraestructuraUrbana (old).xlsx
+++ b/LibroDomioInfraestructuraUrbana (old).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmp\Documents\DMQ\Excel to HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418BE20-49E5-4911-BC95-729A3C1A7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C9AF6-0706-4F5F-BD5A-68A1E96266B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="1" r:id="rId1"/>
@@ -656,12 +656,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,23 +986,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2472,12 +2465,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2754,12 +2747,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2802,7 +2795,7 @@
     <xf numFmtId="0" fontId="41" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="41" fillId="7" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2820,13 +2813,13 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="73" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="50" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2841,7 +2834,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2859,13 +2852,13 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="50" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2911,16 +2904,16 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2953,16 +2946,16 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="61" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="98" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3086,303 +3079,302 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="73" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="108" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="106" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="5" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="5" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="73" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="108" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="106" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="5" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="5" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="78" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -5118,7 +5110,7 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
@@ -5144,9 +5136,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="30">
-      <c r="A2" s="248"/>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
+      <c r="A2" s="245"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
@@ -5161,16 +5153,16 @@
     </row>
     <row r="3" spans="1:17" ht="22.5" customHeight="1"/>
     <row r="4" spans="1:17" ht="14.25" customHeight="1">
-      <c r="G4" s="246" t="s">
+      <c r="G4" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -5189,44 +5181,44 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1">
-      <c r="G6" s="246" t="s">
+      <c r="G6" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="246"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="246"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="246"/>
-      <c r="M6" s="246"/>
-      <c r="N6" s="246"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="7.5" customHeight="1">
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
+      <c r="N7" s="243"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -5247,10 +5239,10 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1">
-      <c r="G10" s="245" t="s">
+      <c r="G10" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="245"/>
+      <c r="H10" s="242"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -5290,25 +5282,25 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="G13" s="246" t="s">
+      <c r="G13" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="243"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1">
-      <c r="G14" s="245" t="s">
+      <c r="G14" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="245"/>
+      <c r="H14" s="242"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -5333,31 +5325,31 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" customHeight="1">
-      <c r="G16" s="246" t="s">
+      <c r="G16" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="243"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="7:20" ht="17.25" customHeight="1">
-      <c r="G17" s="246" t="s">
+      <c r="G17" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="243"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -5378,11 +5370,11 @@
     <row r="19" spans="7:20"/>
     <row r="20" spans="7:20" s="220" customFormat="1" ht="3.75" customHeight="1"/>
     <row r="21" spans="7:20" ht="12.75" customHeight="1">
-      <c r="P21" s="247"/>
-      <c r="Q21" s="247"/>
-      <c r="R21" s="247"/>
-      <c r="S21" s="247"/>
-      <c r="T21" s="247"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="244"/>
     </row>
     <row r="22" spans="7:20"/>
     <row r="23" spans="7:20"/>
@@ -5432,11 +5424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="13" customWidth="1"/>
@@ -5460,12 +5452,12 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="284" t="s">
+      <c r="G2" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -5476,10 +5468,10 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -5490,10 +5482,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -5514,71 +5506,71 @@
     </row>
     <row r="6" spans="2:15"/>
     <row r="7" spans="2:15" ht="30">
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="288"/>
-      <c r="O7" s="288"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
     </row>
     <row r="8" spans="2:15"/>
     <row r="9" spans="2:15" ht="48" customHeight="1">
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
     </row>
     <row r="10" spans="2:15"/>
     <row r="11" spans="2:15" ht="23.25">
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="253"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="250"/>
     </row>
     <row r="12" spans="2:15"/>
     <row r="13" spans="2:15">
-      <c r="B13" s="287" t="s">
+      <c r="B13" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
     </row>
     <row r="14" spans="2:15"/>
     <row r="15" spans="2:15"/>
@@ -5623,347 +5615,347 @@
     <row r="18" spans="1:14"/>
     <row r="19" spans="1:14"/>
     <row r="20" spans="1:14">
-      <c r="B20" s="287"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
     </row>
     <row r="21" spans="1:14" ht="23.25">
-      <c r="B21" s="253" t="s">
+      <c r="B21" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="253"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
+      <c r="H21" s="250"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A23" s="291"/>
-      <c r="B23" s="291"/>
-      <c r="C23" s="258" t="s">
+      <c r="A23" s="252"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="253" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="292" t="s">
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="258"/>
-      <c r="H23" s="258"/>
-      <c r="I23" s="258"/>
-      <c r="J23" s="258"/>
-      <c r="K23" s="258"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
       <c r="L23" s="22" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" s="25" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A24" s="286"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="278" t="s">
+      <c r="A24" s="264"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="279"/>
-      <c r="E24" s="280"/>
-      <c r="F24" s="250" t="s">
+      <c r="D24" s="257"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="260"/>
+      <c r="K24" s="261"/>
       <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:14" s="25" customFormat="1" ht="40.5" customHeight="1">
-      <c r="C25" s="278" t="s">
+      <c r="C25" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="279"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="250" t="s">
+      <c r="D25" s="257"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="260"/>
+      <c r="K25" s="261"/>
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" ht="34.5" customHeight="1">
-      <c r="C26" s="278" t="s">
+      <c r="C26" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="279"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="250" t="s">
+      <c r="D26" s="257"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="259" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="252"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="261"/>
       <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" ht="21.75" customHeight="1">
-      <c r="C27" s="278" t="s">
+      <c r="C27" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="279"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="250" t="s">
+      <c r="D27" s="257"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="252"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="260"/>
+      <c r="K27" s="261"/>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" ht="40.5" customHeight="1">
-      <c r="C28" s="278" t="s">
+      <c r="C28" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="279"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="250" t="s">
+      <c r="D28" s="257"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="251"/>
-      <c r="K28" s="252"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="260"/>
+      <c r="J28" s="260"/>
+      <c r="K28" s="261"/>
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:14" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="C29" s="278" t="s">
+      <c r="C29" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="279"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="250" t="s">
+      <c r="D29" s="257"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="251"/>
-      <c r="H29" s="251"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="251"/>
-      <c r="K29" s="252"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="261"/>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:14" s="25" customFormat="1">
-      <c r="C30" s="278"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="281"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="282"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
-      <c r="K30" s="283"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="267"/>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:14" s="25" customFormat="1">
-      <c r="C31" s="278"/>
-      <c r="D31" s="279"/>
-      <c r="E31" s="280"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="251"/>
-      <c r="K31" s="252"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="259"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="261"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:14" s="25" customFormat="1">
-      <c r="C32" s="278"/>
-      <c r="D32" s="279"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="251"/>
-      <c r="K32" s="252"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="259"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="260"/>
+      <c r="J32" s="260"/>
+      <c r="K32" s="261"/>
       <c r="L32" s="24"/>
     </row>
     <row r="33" spans="2:13" s="25" customFormat="1">
-      <c r="C33" s="278"/>
-      <c r="D33" s="279"/>
-      <c r="E33" s="280"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="251"/>
-      <c r="K33" s="252"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="259"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="260"/>
+      <c r="K33" s="261"/>
       <c r="L33" s="24"/>
     </row>
     <row r="34" spans="2:13" s="25" customFormat="1">
-      <c r="C34" s="278"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="280"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="251"/>
-      <c r="K34" s="252"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="260"/>
+      <c r="K34" s="261"/>
       <c r="L34" s="24"/>
     </row>
     <row r="35" spans="2:13" s="25" customFormat="1">
-      <c r="C35" s="278"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="280"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="251"/>
-      <c r="H35" s="251"/>
-      <c r="I35" s="251"/>
-      <c r="J35" s="251"/>
-      <c r="K35" s="252"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="259"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
+      <c r="J35" s="260"/>
+      <c r="K35" s="261"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="2:13" s="25" customFormat="1">
-      <c r="C36" s="278"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="280"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="251"/>
-      <c r="H36" s="251"/>
-      <c r="I36" s="251"/>
-      <c r="J36" s="251"/>
-      <c r="K36" s="252"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="261"/>
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:13" s="25" customFormat="1">
-      <c r="C37" s="278"/>
-      <c r="D37" s="279"/>
-      <c r="E37" s="280"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="251"/>
-      <c r="H37" s="251"/>
-      <c r="I37" s="251"/>
-      <c r="J37" s="251"/>
-      <c r="K37" s="252"/>
+      <c r="C37" s="256"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="261"/>
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="2:13" s="25" customFormat="1">
-      <c r="C38" s="278"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="251"/>
-      <c r="H38" s="251"/>
-      <c r="I38" s="251"/>
-      <c r="J38" s="251"/>
-      <c r="K38" s="252"/>
+      <c r="C38" s="256"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="261"/>
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="2:13" s="25" customFormat="1">
-      <c r="C39" s="278"/>
-      <c r="D39" s="279"/>
-      <c r="E39" s="280"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="251"/>
-      <c r="H39" s="251"/>
-      <c r="I39" s="251"/>
-      <c r="J39" s="251"/>
-      <c r="K39" s="252"/>
+      <c r="C39" s="256"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="260"/>
+      <c r="H39" s="260"/>
+      <c r="I39" s="260"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="261"/>
       <c r="L39" s="24"/>
     </row>
     <row r="40" spans="2:13" s="25" customFormat="1">
-      <c r="C40" s="278"/>
-      <c r="D40" s="279"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="250"/>
-      <c r="G40" s="251"/>
-      <c r="H40" s="251"/>
-      <c r="I40" s="251"/>
-      <c r="J40" s="251"/>
-      <c r="K40" s="252"/>
+      <c r="C40" s="256"/>
+      <c r="D40" s="257"/>
+      <c r="E40" s="258"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="260"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="260"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="261"/>
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="2:13" s="25" customFormat="1">
-      <c r="C41" s="278"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="280"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="251"/>
-      <c r="I41" s="251"/>
-      <c r="J41" s="251"/>
-      <c r="K41" s="252"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="258"/>
+      <c r="F41" s="259"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="260"/>
+      <c r="J41" s="260"/>
+      <c r="K41" s="261"/>
       <c r="L41" s="24"/>
     </row>
     <row r="42" spans="2:13" s="25" customFormat="1">
-      <c r="C42" s="278"/>
-      <c r="D42" s="279"/>
-      <c r="E42" s="280"/>
-      <c r="F42" s="250"/>
-      <c r="G42" s="251"/>
-      <c r="H42" s="251"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="252"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="257"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="259"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="261"/>
       <c r="L42" s="24"/>
     </row>
     <row r="43" spans="2:13" s="25" customFormat="1">
-      <c r="C43" s="278"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="280"/>
-      <c r="F43" s="250"/>
-      <c r="G43" s="251"/>
-      <c r="H43" s="251"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="251"/>
-      <c r="K43" s="252"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="259"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="261"/>
       <c r="L43" s="24"/>
     </row>
     <row r="44" spans="2:13" s="25" customFormat="1">
-      <c r="C44" s="278"/>
-      <c r="D44" s="279"/>
-      <c r="E44" s="280"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="252"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="258"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="24"/>
     </row>
     <row r="45" spans="2:13" s="25" customFormat="1">
-      <c r="C45" s="278"/>
-      <c r="D45" s="279"/>
-      <c r="E45" s="280"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="251"/>
-      <c r="H45" s="251"/>
-      <c r="I45" s="251"/>
-      <c r="J45" s="251"/>
-      <c r="K45" s="252"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="258"/>
+      <c r="F45" s="259"/>
+      <c r="G45" s="260"/>
+      <c r="H45" s="260"/>
+      <c r="I45" s="260"/>
+      <c r="J45" s="260"/>
+      <c r="K45" s="261"/>
       <c r="L45" s="24"/>
     </row>
     <row r="46" spans="2:13" s="25" customFormat="1" ht="36" customHeight="1">
@@ -5979,20 +5971,20 @@
       <c r="L46" s="28"/>
     </row>
     <row r="47" spans="2:13" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B47" s="253" t="s">
+      <c r="B47" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="253"/>
-      <c r="D47" s="253"/>
-      <c r="E47" s="253"/>
-      <c r="F47" s="253"/>
-      <c r="G47" s="253"/>
-      <c r="H47" s="253"/>
-      <c r="I47" s="253"/>
-      <c r="J47" s="253"/>
-      <c r="K47" s="253"/>
-      <c r="L47" s="253"/>
-      <c r="M47" s="253"/>
+      <c r="C47" s="250"/>
+      <c r="D47" s="250"/>
+      <c r="E47" s="250"/>
+      <c r="F47" s="250"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="250"/>
+      <c r="I47" s="250"/>
+      <c r="J47" s="250"/>
+      <c r="K47" s="250"/>
+      <c r="L47" s="250"/>
+      <c r="M47" s="250"/>
     </row>
     <row r="48" spans="2:13" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="C48" s="29"/>
@@ -6000,120 +5992,120 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C49" s="258" t="s">
+      <c r="C49" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="258"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="255" t="s">
+      <c r="D49" s="253"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="256"/>
-      <c r="H49" s="260"/>
-      <c r="I49" s="261" t="s">
+      <c r="G49" s="269"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
+      <c r="J49" s="269"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
     </row>
     <row r="50" spans="3:14" s="20" customFormat="1" ht="72.75" customHeight="1">
-      <c r="C50" s="262" t="s">
+      <c r="C50" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="263"/>
-      <c r="E50" s="264"/>
-      <c r="F50" s="271" t="s">
+      <c r="D50" s="273"/>
+      <c r="E50" s="274"/>
+      <c r="F50" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="272"/>
-      <c r="H50" s="272"/>
-      <c r="I50" s="277" t="s">
+      <c r="G50" s="282"/>
+      <c r="H50" s="282"/>
+      <c r="I50" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="277"/>
-      <c r="K50" s="277"/>
-      <c r="L50" s="277"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
     </row>
     <row r="51" spans="3:14" s="20" customFormat="1" ht="72.75" customHeight="1">
-      <c r="C51" s="265"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="267"/>
-      <c r="F51" s="271" t="s">
+      <c r="C51" s="275"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="277"/>
+      <c r="F51" s="281" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="272"/>
-      <c r="H51" s="272"/>
-      <c r="I51" s="277" t="s">
+      <c r="G51" s="282"/>
+      <c r="H51" s="282"/>
+      <c r="I51" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="277"/>
-      <c r="K51" s="277"/>
-      <c r="L51" s="277"/>
+      <c r="J51" s="246"/>
+      <c r="K51" s="246"/>
+      <c r="L51" s="246"/>
     </row>
     <row r="52" spans="3:14" s="20" customFormat="1" ht="72.75" customHeight="1">
-      <c r="C52" s="268"/>
-      <c r="D52" s="269"/>
-      <c r="E52" s="270"/>
-      <c r="F52" s="271" t="s">
+      <c r="C52" s="278"/>
+      <c r="D52" s="279"/>
+      <c r="E52" s="280"/>
+      <c r="F52" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="272"/>
-      <c r="H52" s="272"/>
-      <c r="I52" s="277" t="s">
+      <c r="G52" s="282"/>
+      <c r="H52" s="282"/>
+      <c r="I52" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="J52" s="277"/>
-      <c r="K52" s="277"/>
-      <c r="L52" s="277"/>
+      <c r="J52" s="246"/>
+      <c r="K52" s="246"/>
+      <c r="L52" s="246"/>
     </row>
     <row r="53" spans="3:14" s="20" customFormat="1" ht="48" customHeight="1">
-      <c r="C53" s="262" t="s">
+      <c r="C53" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="263"/>
-      <c r="E53" s="264"/>
-      <c r="F53" s="271" t="s">
+      <c r="D53" s="273"/>
+      <c r="E53" s="274"/>
+      <c r="F53" s="281" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="272"/>
-      <c r="H53" s="273"/>
-      <c r="I53" s="274" t="s">
+      <c r="G53" s="282"/>
+      <c r="H53" s="283"/>
+      <c r="I53" s="284" t="s">
         <v>52</v>
       </c>
-      <c r="J53" s="275"/>
-      <c r="K53" s="275"/>
-      <c r="L53" s="276"/>
+      <c r="J53" s="285"/>
+      <c r="K53" s="285"/>
+      <c r="L53" s="286"/>
     </row>
     <row r="54" spans="3:14" s="20" customFormat="1" ht="48" customHeight="1">
-      <c r="C54" s="265"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="267"/>
-      <c r="F54" s="271" t="s">
+      <c r="C54" s="275"/>
+      <c r="D54" s="276"/>
+      <c r="E54" s="277"/>
+      <c r="F54" s="281" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="272"/>
-      <c r="H54" s="273"/>
-      <c r="I54" s="277"/>
-      <c r="J54" s="277"/>
-      <c r="K54" s="277"/>
-      <c r="L54" s="277"/>
+      <c r="G54" s="282"/>
+      <c r="H54" s="283"/>
+      <c r="I54" s="246"/>
+      <c r="J54" s="246"/>
+      <c r="K54" s="246"/>
+      <c r="L54" s="246"/>
     </row>
     <row r="55" spans="3:14" s="20" customFormat="1" ht="48" customHeight="1">
-      <c r="C55" s="268"/>
-      <c r="D55" s="269"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="271" t="s">
+      <c r="C55" s="278"/>
+      <c r="D55" s="279"/>
+      <c r="E55" s="280"/>
+      <c r="F55" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="272"/>
-      <c r="H55" s="272"/>
-      <c r="I55" s="277" t="s">
+      <c r="G55" s="282"/>
+      <c r="H55" s="282"/>
+      <c r="I55" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="277"/>
-      <c r="K55" s="277"/>
-      <c r="L55" s="277"/>
+      <c r="J55" s="246"/>
+      <c r="K55" s="246"/>
+      <c r="L55" s="246"/>
     </row>
     <row r="56" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="C56" s="26"/>
@@ -6128,20 +6120,20 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C57" s="253" t="s">
+      <c r="C57" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="253"/>
-      <c r="E57" s="253"/>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
-      <c r="H57" s="253"/>
-      <c r="I57" s="253"/>
-      <c r="J57" s="253"/>
-      <c r="K57" s="253"/>
-      <c r="L57" s="253"/>
-      <c r="M57" s="253"/>
-      <c r="N57" s="253"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="250"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="250"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="250"/>
+      <c r="K57" s="250"/>
+      <c r="L57" s="250"/>
+      <c r="M57" s="250"/>
+      <c r="N57" s="250"/>
     </row>
     <row r="58" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="C58" s="26"/>
@@ -6156,73 +6148,73 @@
       <c r="L58" s="31"/>
     </row>
     <row r="59" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C59" s="254" t="s">
+      <c r="C59" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="255" t="s">
+      <c r="D59" s="288"/>
+      <c r="E59" s="288"/>
+      <c r="F59" s="288"/>
+      <c r="G59" s="288"/>
+      <c r="H59" s="268" t="s">
         <v>58</v>
       </c>
-      <c r="I59" s="256"/>
-      <c r="J59" s="256"/>
-      <c r="K59" s="257"/>
+      <c r="I59" s="269"/>
+      <c r="J59" s="269"/>
+      <c r="K59" s="289"/>
       <c r="L59" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C60" s="249" t="s">
+      <c r="C60" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="249"/>
-      <c r="E60" s="249"/>
-      <c r="F60" s="249"/>
-      <c r="G60" s="249"/>
-      <c r="H60" s="250" t="s">
+      <c r="D60" s="287"/>
+      <c r="E60" s="287"/>
+      <c r="F60" s="287"/>
+      <c r="G60" s="287"/>
+      <c r="H60" s="259" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="251"/>
-      <c r="J60" s="251"/>
-      <c r="K60" s="252"/>
+      <c r="I60" s="260"/>
+      <c r="J60" s="260"/>
+      <c r="K60" s="261"/>
       <c r="L60" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C61" s="249" t="s">
+      <c r="C61" s="287" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="249"/>
-      <c r="E61" s="249"/>
-      <c r="F61" s="249"/>
-      <c r="G61" s="249"/>
-      <c r="H61" s="250" t="s">
+      <c r="D61" s="287"/>
+      <c r="E61" s="287"/>
+      <c r="F61" s="287"/>
+      <c r="G61" s="287"/>
+      <c r="H61" s="259" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="251"/>
-      <c r="J61" s="251"/>
-      <c r="K61" s="252"/>
+      <c r="I61" s="260"/>
+      <c r="J61" s="260"/>
+      <c r="K61" s="261"/>
       <c r="L61" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="3:14" s="20" customFormat="1" ht="73.5" customHeight="1">
-      <c r="C62" s="249" t="s">
+      <c r="C62" s="287" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="249"/>
-      <c r="E62" s="249"/>
-      <c r="F62" s="249"/>
-      <c r="G62" s="249"/>
-      <c r="H62" s="250" t="s">
+      <c r="D62" s="287"/>
+      <c r="E62" s="287"/>
+      <c r="F62" s="287"/>
+      <c r="G62" s="287"/>
+      <c r="H62" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="251"/>
-      <c r="J62" s="251"/>
-      <c r="K62" s="252"/>
+      <c r="I62" s="260"/>
+      <c r="J62" s="260"/>
+      <c r="K62" s="261"/>
       <c r="L62" s="24"/>
     </row>
     <row r="63" spans="3:14" s="20" customFormat="1" ht="29.25" customHeight="1">
@@ -6261,6 +6253,73 @@
     <row r="107"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="C57:N57"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="C50:E52"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="B9:L9"/>
@@ -6277,73 +6336,6 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="C50:E52"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="C57:N57"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:K61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6352,13 +6344,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="5.5703125" style="13" customWidth="1" collapsed="1"/>
@@ -6441,22 +6433,21 @@
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="30" hidden="1">
       <c r="A4" s="35"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222" t="s">
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="317"/>
+      <c r="J4" s="317"/>
+      <c r="K4" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="317"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
       <c r="O4" s="40"/>
@@ -6466,22 +6457,21 @@
     </row>
     <row r="5" spans="1:19" ht="30" hidden="1">
       <c r="A5" s="35"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="F5" s="222" t="s">
+      <c r="B5" s="317"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="F5" s="318" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="318" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="223"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="39" t="s">
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="318" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="317"/>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
@@ -6491,22 +6481,21 @@
     </row>
     <row r="6" spans="1:19" ht="30" hidden="1">
       <c r="A6" s="35"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="F6" s="222" t="s">
+      <c r="B6" s="317"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="317"/>
+      <c r="F6" s="318" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="222" t="s">
+      <c r="G6" s="318" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="223"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="39" t="s">
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+      <c r="K6" s="318" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="317"/>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -6516,22 +6505,21 @@
     </row>
     <row r="7" spans="1:19" ht="30" hidden="1">
       <c r="A7" s="35"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="F7" s="222" t="s">
+      <c r="B7" s="317"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="317"/>
+      <c r="F7" s="318" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="222" t="s">
+      <c r="G7" s="318" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="39" t="s">
+      <c r="I7" s="317"/>
+      <c r="J7" s="317"/>
+      <c r="K7" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="317"/>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -6541,18 +6529,17 @@
     </row>
     <row r="8" spans="1:19" ht="30" hidden="1">
       <c r="A8" s="35"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222" t="s">
+      <c r="B8" s="317"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="317"/>
+      <c r="F8" s="318"/>
+      <c r="G8" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="318"/>
+      <c r="L8" s="317"/>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -6565,15 +6552,15 @@
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="293" t="s">
+      <c r="E9" s="290" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="293"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -6596,10 +6583,10 @@
       <c r="G10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="294" t="s">
+      <c r="H10" s="291" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="295"/>
+      <c r="I10" s="292"/>
       <c r="J10" s="44" t="s">
         <v>85</v>
       </c>
@@ -6628,8 +6615,8 @@
       <c r="G11" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="296"/>
-      <c r="I11" s="297"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="294"/>
       <c r="J11" s="51"/>
       <c r="K11" s="52" t="s">
         <v>67</v>
@@ -6653,8 +6640,8 @@
       <c r="G12" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="298"/>
-      <c r="I12" s="299"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="296"/>
       <c r="J12" s="57"/>
       <c r="K12" s="58" t="s">
         <v>67</v>
@@ -6769,7 +6756,7 @@
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
     </row>
-    <row r="18" spans="1:18" s="225" customFormat="1"/>
+    <row r="18" spans="1:18" s="222" customFormat="1"/>
     <row r="19" spans="1:18" hidden="1"/>
     <row r="20" spans="1:18" hidden="1"/>
     <row r="21" spans="1:18" hidden="1"/>
@@ -6784,28 +6771,29 @@
     <row r="30" spans="1:18" hidden="1"/>
     <row r="31" spans="1:18" hidden="1"/>
     <row r="32" spans="1:18" hidden="1"/>
-    <row r="33" hidden="1"/>
-    <row r="34" hidden="1"/>
-    <row r="35" hidden="1"/>
-    <row r="36" hidden="1"/>
-    <row r="37" hidden="1"/>
-    <row r="38" hidden="1"/>
-    <row r="39" hidden="1"/>
-    <row r="40" hidden="1"/>
-    <row r="41" hidden="1"/>
-    <row r="42" hidden="1"/>
-    <row r="43" hidden="1"/>
-    <row r="44" hidden="1"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="33" s="13" customFormat="1" hidden="1"/>
+    <row r="34" s="13" customFormat="1" hidden="1"/>
+    <row r="35" s="13" customFormat="1" hidden="1"/>
+    <row r="36" s="13" customFormat="1" hidden="1"/>
+    <row r="37" s="13" customFormat="1" hidden="1"/>
+    <row r="38" s="13" customFormat="1" hidden="1"/>
+    <row r="39" s="13" customFormat="1" hidden="1"/>
+    <row r="40" s="13" customFormat="1" hidden="1"/>
+    <row r="41" s="13" customFormat="1" hidden="1"/>
+    <row r="42" s="13" customFormat="1" hidden="1"/>
+    <row r="43" s="13" customFormat="1" hidden="1"/>
+    <row r="44" s="13" customFormat="1" hidden="1"/>
+    <row r="45" s="13" customFormat="1"/>
+    <row r="46" s="13" customFormat="1"/>
+    <row r="47" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="48" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="49" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="50" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="51" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="52" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="53" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="54" s="13" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="55" s="13" customFormat="1" ht="14.25" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E9:K9"/>
@@ -6837,7 +6825,7 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="73" customWidth="1"/>
     <col min="2" max="2" width="13" style="73" customWidth="1"/>
@@ -6866,12 +6854,12 @@
       <c r="D2" s="75"/>
     </row>
     <row r="3" spans="2:18" ht="56.25" customHeight="1">
-      <c r="D3" s="303" t="s">
+      <c r="D3" s="300" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
     </row>
     <row r="4" spans="2:18" ht="17.25" customHeight="1">
       <c r="D4" s="73"/>
@@ -6887,11 +6875,11 @@
     </row>
     <row r="7" spans="2:18" ht="21" customHeight="1" thickBot="1"/>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="301"/>
-      <c r="D8" s="302"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="299"/>
       <c r="E8" s="205" t="s">
         <v>90</v>
       </c>
@@ -7364,7 +7352,7 @@
       <selection activeCell="M11" sqref="M11:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="42" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.42578125" style="42" customWidth="1" collapsed="1"/>
@@ -7407,10 +7395,10 @@
       <c r="C8" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="236" t="s">
+      <c r="D8" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="236"/>
+      <c r="E8" s="233"/>
       <c r="F8" s="113">
         <v>0.8</v>
       </c>
@@ -7437,28 +7425,28 @@
     </row>
     <row r="11" spans="1:17" s="122" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="121"/>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="238"/>
-      <c r="D11" s="239" t="s">
+      <c r="C11" s="235"/>
+      <c r="D11" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="240" t="s">
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="237" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="241"/>
-      <c r="M11" s="242" t="s">
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="243"/>
-      <c r="O11" s="244"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="241"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" thickBot="1">
       <c r="B12" s="123" t="s">
@@ -7505,10 +7493,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="77.25" customHeight="1" thickBot="1">
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="233" t="s">
+      <c r="C13" s="230" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="130" t="s">
@@ -7520,15 +7508,15 @@
       <c r="F13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="224"/>
       <c r="I13" s="131">
         <v>1</v>
       </c>
       <c r="J13" s="131">
         <v>1</v>
       </c>
-      <c r="K13" s="230"/>
+      <c r="K13" s="227"/>
       <c r="L13" s="132" t="e">
         <v>#REF!</v>
       </c>
@@ -7539,10 +7527,10 @@
       <c r="O13" s="135"/>
     </row>
     <row r="14" spans="1:17" ht="77.25" customHeight="1">
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="233" t="s">
+      <c r="C14" s="230" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="138" t="s">
@@ -7554,15 +7542,15 @@
       <c r="F14" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="226"/>
-      <c r="H14" s="227"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="224"/>
       <c r="I14" s="131">
         <v>1</v>
       </c>
       <c r="J14" s="131">
         <v>1</v>
       </c>
-      <c r="K14" s="230"/>
+      <c r="K14" s="227"/>
       <c r="L14" s="132" t="e">
         <v>#REF!</v>
       </c>
@@ -7573,10 +7561,10 @@
       <c r="O14" s="140"/>
     </row>
     <row r="15" spans="1:17" ht="77.25" customHeight="1">
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="232" t="s">
         <v>162</v>
       </c>
       <c r="D15" s="138" t="s">
@@ -7588,13 +7576,13 @@
       <c r="F15" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
       <c r="I15" s="131">
         <v>0.7</v>
       </c>
       <c r="J15" s="131"/>
-      <c r="K15" s="230"/>
+      <c r="K15" s="227"/>
       <c r="L15" s="132" t="e">
         <v>#REF!</v>
       </c>
@@ -7605,10 +7593,10 @@
       <c r="O15" s="140"/>
     </row>
     <row r="16" spans="1:17" ht="77.25" customHeight="1">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="235" t="s">
+      <c r="C16" s="232" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="138" t="s">
@@ -7620,13 +7608,13 @@
       <c r="F16" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="224"/>
       <c r="I16" s="131">
         <v>0.8</v>
       </c>
       <c r="J16" s="131"/>
-      <c r="K16" s="230"/>
+      <c r="K16" s="227"/>
       <c r="L16" s="132" t="e">
         <v>#REF!</v>
       </c>
@@ -7637,10 +7625,10 @@
       <c r="O16" s="140"/>
     </row>
     <row r="17" spans="2:23" ht="77.25" customHeight="1">
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="235" t="s">
+      <c r="C17" s="232" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="138" t="s">
@@ -7652,13 +7640,13 @@
       <c r="F17" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="226"/>
-      <c r="H17" s="227"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="224"/>
       <c r="I17" s="131">
         <v>0.7</v>
       </c>
       <c r="J17" s="131"/>
-      <c r="K17" s="230"/>
+      <c r="K17" s="227"/>
       <c r="L17" s="132"/>
       <c r="M17" s="133">
         <v>45769</v>
@@ -7667,10 +7655,10 @@
       <c r="O17" s="140"/>
     </row>
     <row r="18" spans="2:23" ht="77.25" customHeight="1">
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="235" t="s">
+      <c r="C18" s="232" t="s">
         <v>136</v>
       </c>
       <c r="D18" s="138" t="s">
@@ -7682,13 +7670,13 @@
       <c r="F18" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="226"/>
-      <c r="H18" s="227"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="224"/>
       <c r="I18" s="131">
         <v>0.6</v>
       </c>
       <c r="J18" s="131"/>
-      <c r="K18" s="230"/>
+      <c r="K18" s="227"/>
       <c r="L18" s="132"/>
       <c r="M18" s="133">
         <v>45769</v>
@@ -7702,11 +7690,11 @@
       <c r="D19" s="138"/>
       <c r="E19" s="136"/>
       <c r="F19" s="137"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="227"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="224"/>
       <c r="I19" s="131"/>
       <c r="J19" s="131"/>
-      <c r="K19" s="230"/>
+      <c r="K19" s="227"/>
       <c r="L19" s="132"/>
       <c r="M19" s="133"/>
       <c r="N19" s="139"/>
@@ -7718,27 +7706,27 @@
       <c r="D20" s="138"/>
       <c r="E20" s="136"/>
       <c r="F20" s="137"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="227"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="224"/>
       <c r="I20" s="131"/>
       <c r="J20" s="131"/>
-      <c r="K20" s="230"/>
+      <c r="K20" s="227"/>
       <c r="L20" s="132"/>
       <c r="M20" s="133"/>
       <c r="N20" s="139"/>
       <c r="O20" s="140"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="304"/>
-      <c r="C21" s="306"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="303"/>
       <c r="D21" s="138"/>
       <c r="E21" s="136"/>
       <c r="F21" s="137"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="227"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="224"/>
       <c r="I21" s="131"/>
       <c r="J21" s="131"/>
-      <c r="K21" s="230"/>
+      <c r="K21" s="227"/>
       <c r="L21" s="132" t="e">
         <v>#REF!</v>
       </c>
@@ -7747,16 +7735,16 @@
       <c r="O21" s="140"/>
     </row>
     <row r="22" spans="2:23" ht="15" thickBot="1">
-      <c r="B22" s="305"/>
-      <c r="C22" s="307"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="304"/>
       <c r="D22" s="143"/>
       <c r="E22" s="141"/>
       <c r="F22" s="142"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="229"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="226"/>
       <c r="I22" s="144"/>
       <c r="J22" s="144"/>
-      <c r="K22" s="231"/>
+      <c r="K22" s="228"/>
       <c r="L22" s="145" t="e">
         <v>#REF!</v>
       </c>
@@ -7951,7 +7939,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
   </mergeCells>
-  <phoneticPr fontId="55" type="noConversion"/>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7965,7 +7953,7 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="122" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="122" customWidth="1"/>
@@ -8001,15 +7989,15 @@
     </row>
     <row r="3" spans="1:38" s="107" customFormat="1" ht="30" customHeight="1">
       <c r="C3" s="153"/>
-      <c r="D3" s="308" t="s">
+      <c r="D3" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
     </row>
     <row r="4" spans="1:38" s="107" customFormat="1" ht="22.5" customHeight="1">
       <c r="C4" s="153"/>
@@ -8061,30 +8049,30 @@
     <row r="9" spans="1:38" ht="14.25"/>
     <row r="10" spans="1:38" ht="15" thickBot="1"/>
     <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="310" t="s">
+      <c r="B11" s="307" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="312"/>
-      <c r="G11" s="313" t="s">
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="310" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="314"/>
-      <c r="I11" s="314"/>
-      <c r="J11" s="315"/>
-      <c r="K11" s="316" t="s">
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="313" t="s">
         <v>172</v>
       </c>
-      <c r="L11" s="317"/>
-      <c r="M11" s="317"/>
-      <c r="N11" s="317"/>
-      <c r="O11" s="317"/>
-      <c r="P11" s="318"/>
-      <c r="Q11" s="318"/>
-      <c r="R11" s="318"/>
-      <c r="S11" s="319"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="314"/>
+      <c r="O11" s="314"/>
+      <c r="P11" s="315"/>
+      <c r="Q11" s="315"/>
+      <c r="R11" s="315"/>
+      <c r="S11" s="316"/>
       <c r="T11" s="154"/>
       <c r="U11" s="155" t="s">
         <v>143</v>
